--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3167.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3167.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.603217256270941</v>
+        <v>0.9906358122825623</v>
       </c>
       <c r="B1">
-        <v>1.726498206074769</v>
+        <v>2.211426496505737</v>
       </c>
       <c r="C1">
-        <v>1.992832295715972</v>
+        <v>4.972152709960938</v>
       </c>
       <c r="D1">
-        <v>3.228877535928663</v>
+        <v>1.736373782157898</v>
       </c>
       <c r="E1">
-        <v>7.534982660412593</v>
+        <v>1.295992970466614</v>
       </c>
     </row>
   </sheetData>
